--- a/Dataset/Folds/Fold_3/Excel/92.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="204">
   <si>
     <t>Doi</t>
   </si>
@@ -639,6 +639,55 @@
   </si>
   <si>
     <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                           David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                            Sanjit R.%Konda%NULL%2,                            Mackenzie L.%Bird%NULL%2,                            Nicket%Dedhia%NULL%2,                            Emma K.%Landes%NULL%2,                            Rachel A.%Ranson%NULL%2,                            Sara J.%Solasz%NULL%2,                            Vinay K.%Aggarwal%NULL%2,                            Joseph A.%Bosco%NULL%2,                            David L.%Furgiuele%NULL%2,                            Abhishek%Ganta%NULL%2,                            Jason%Gould%NULL%2,                            Thomas R.%Lyon%NULL%2,                            Toni M.%McLaurin%NULL%2,                            Nirmal C.%Tejwani%NULL%2,                            Joseph D.%Zuckerman%NULL%2,                            Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                            Maxwell A.%Konnaris%NULL%2,                            Gregory C.%Ghahramani%NULL%2,                            Ajay%Premkumar%NULL%2,                            Chris J.%DeFrancesco%NULL%2,                            Jordan A.%Gruskay%NULL%2,                            Aleksey%Dvorzhinskiy%NULL%2,                            Milan S.%Sandhu%NULL%2,                            Elan M.%Goldwyn%NULL%2,                            Christopher L.%Mendias%NULL%2,                            William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                            Montsant%Jornet-Gibert%NULL%2,                            Montsant%Jornet-Gibert%NULL%0,                            J.%Cámara-Cabrera%NULL%2,                            J.%Cámara-Cabrera%NULL%0,                            Pedro L.%Esteban%NULL%2,                            Pedro L.%Esteban%NULL%0,                            Laia%Brunet%NULL%2,                            Laia%Brunet%NULL%0,                            Luis%Delgado-Flores%NULL%2,                            Luis%Delgado-Flores%NULL%0,                            P.%Camacho-Carrasco%NULL%2,                            P.%Camacho-Carrasco%NULL%0,                            P.%Torner%NULL%2,                            P.%Torner%NULL%0,                            Francesc%Marcano-Fernández%NULL%2,                            Francesc%Marcano-Fernández%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                            David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                             Sanjit R.%Konda%NULL%2,                             Mackenzie L.%Bird%NULL%2,                             Nicket%Dedhia%NULL%2,                             Emma K.%Landes%NULL%2,                             Rachel A.%Ranson%NULL%2,                             Sara J.%Solasz%NULL%2,                             Vinay K.%Aggarwal%NULL%2,                             Joseph A.%Bosco%NULL%2,                             David L.%Furgiuele%NULL%2,                             Abhishek%Ganta%NULL%2,                             Jason%Gould%NULL%2,                             Thomas R.%Lyon%NULL%2,                             Toni M.%McLaurin%NULL%2,                             Nirmal C.%Tejwani%NULL%2,                             Joseph D.%Zuckerman%NULL%2,                             Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                             Maxwell A.%Konnaris%NULL%2,                             Gregory C.%Ghahramani%NULL%2,                             Ajay%Premkumar%NULL%2,                             Chris J.%DeFrancesco%NULL%2,                             Jordan A.%Gruskay%NULL%2,                             Aleksey%Dvorzhinskiy%NULL%2,                             Milan S.%Sandhu%NULL%2,                             Elan M.%Goldwyn%NULL%2,                             Christopher L.%Mendias%NULL%2,                             William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                             Montsant%Jornet-Gibert%NULL%2,                             Montsant%Jornet-Gibert%NULL%0,                             J.%Cámara-Cabrera%NULL%2,                             J.%Cámara-Cabrera%NULL%0,                             Pedro L.%Esteban%NULL%2,                             Pedro L.%Esteban%NULL%0,                             Laia%Brunet%NULL%2,                             Laia%Brunet%NULL%0,                             Luis%Delgado-Flores%NULL%2,                             Luis%Delgado-Flores%NULL%0,                             P.%Camacho-Carrasco%NULL%2,                             P.%Camacho-Carrasco%NULL%0,                             P.%Torner%NULL%2,                             P.%Torner%NULL%0,                             Francesc%Marcano-Fernández%NULL%2,                             Francesc%Marcano-Fernández%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                             David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is Available in the Text.
+</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0, Sanjit R.%Konda%NULL%2, Mackenzie L.%Bird%NULL%2, Nicket%Dedhia%NULL%2, Emma K.%Landes%NULL%2, Rachel A.%Ranson%NULL%2, Sara J.%Solasz%NULL%2, Vinay K.%Aggarwal%NULL%2, Joseph A.%Bosco%NULL%2, David L.%Furgiuele%NULL%2, Abhishek%Ganta%NULL%2, Jason%Gould%NULL%2, Thomas R.%Lyon%NULL%2, Toni M.%McLaurin%NULL%2, Nirmal C.%Tejwani%NULL%2, Joseph D.%Zuckerman%NULL%2, Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>Journal of Orthopaedic Trauma</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0, Maxwell A.%Konnaris%NULL%2, Gregory C.%Ghahramani%NULL%2, Ajay%Premkumar%NULL%2, Chris J.%DeFrancesco%NULL%2, Jordan A.%Gruskay%NULL%2, Aleksey%Dvorzhinskiy%NULL%2, Milan S.%Sandhu%NULL%2, Elan M.%Goldwyn%NULL%2, Christopher L.%Mendias%NULL%2, William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%0, Montsant%Jornet-Gibert%NULL%2, Montsant%Jornet-Gibert%NULL%0, J.%Cámara-Cabrera%NULL%2, J.%Cámara-Cabrera%NULL%0, Pedro L.%Esteban%NULL%2, Pedro L.%Esteban%NULL%0, Laia%Brunet%NULL%2, Laia%Brunet%NULL%0, Luis%Delgado-Flores%NULL%2, Luis%Delgado-Flores%NULL%0, P.%Camacho-Carrasco%NULL%2, P.%Camacho-Carrasco%NULL%0, P.%Torner%NULL%2, P.%Torner%NULL%0, Francesc%Marcano-Fernández%NULL%2, Francesc%Marcano-Fernández%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Journal of Bone and Joint Surgery, Inc.</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%0, David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
   </si>
 </sst>
 </file>
@@ -987,10 +1036,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1002,10 +1051,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1068,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1034,10 +1083,10 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -1054,7 +1103,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1066,10 +1115,10 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1086,7 +1135,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1098,10 +1147,10 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6">
@@ -1112,28 +1161,28 @@
         <v>44088.0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1144,28 +1193,28 @@
         <v>44088.0</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
